--- a/BDDExcel/ExcelBDD.xlsx
+++ b/BDDExcel/ExcelBDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\BDDExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E76A7C-FCCF-4CBE-AA8D-D0A51A88538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4341107E-C492-41C8-978B-22F7D7E2F648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="738" activeTab="3" xr2:uid="{965C72BA-AC7B-4020-96A1-B4855C2F0853}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="738" activeTab="1" xr2:uid="{965C72BA-AC7B-4020-96A1-B4855C2F0853}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecificationByExample" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="228">
   <si>
     <t>Role</t>
   </si>
@@ -680,6 +680,9 @@
     <t>IOException</t>
   </si>
   <si>
+    <t>WrongWorksheet does not exist.</t>
+  </si>
+  <si>
     <t>Edit requirements sheet in excel, just as this excel sheet, select this sheet</t>
   </si>
   <si>
@@ -729,24 +732,6 @@
   </si>
   <si>
     <t>notmatched</t>
-  </si>
-  <si>
-    <t>WrongWorksheet sheet does not exist.</t>
-  </si>
-  <si>
-    <t>Default Sheet</t>
-  </si>
-  <si>
-    <t>ExcelBDDSampleA.xlsx</t>
-  </si>
-  <si>
-    <t>MissingGrid</t>
-  </si>
-  <si>
-    <t>Missing Parameter Name Grid, Wrong</t>
-  </si>
-  <si>
-    <t>Parameter Name grid is not found</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1051,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1200,9 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1942,18 +1924,18 @@
         <v>187</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>210</v>
+      <c r="B2" s="67" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>149</v>
@@ -1996,7 +1978,7 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="22" t="s">
         <v>150</v>
       </c>
@@ -2038,7 +2020,7 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="22" t="s">
         <v>25</v>
       </c>
@@ -2080,7 +2062,7 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="22" t="s">
         <v>27</v>
       </c>
@@ -2120,7 +2102,7 @@
     </row>
     <row r="6" spans="1:14" ht="30">
       <c r="A6" s="21"/>
-      <c r="B6" s="69"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="25" t="s">
         <v>89</v>
       </c>
@@ -2158,18 +2140,18 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="21"/>
-      <c r="B7" s="69"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>148</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2178,7 +2160,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N7" s="7"/>
     </row>
@@ -2186,7 +2168,7 @@
       <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="45" t="s">
         <v>178</v>
       </c>
@@ -2228,7 +2210,7 @@
       <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="47" t="s">
         <v>179</v>
       </c>
@@ -2270,7 +2252,7 @@
       <c r="A10" s="21">
         <v>7</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>171</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -2314,7 +2296,7 @@
       <c r="A11" s="21">
         <v>8</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="22" t="s">
         <v>31</v>
       </c>
@@ -2343,20 +2325,20 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="22" t="s">
         <v>34</v>
       </c>
@@ -2385,20 +2367,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>4.4000000000000004</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30">
       <c r="A13" s="21">
         <v>10</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="23" t="s">
         <v>68</v>
       </c>
@@ -2440,7 +2422,7 @@
       <c r="A14" s="21">
         <v>11</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="23" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2464,7 @@
       <c r="A15" s="21">
         <v>12</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="23" t="s">
         <v>66</v>
       </c>
@@ -2508,7 +2490,7 @@
       <c r="A16" s="21">
         <v>13</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="22" t="s">
         <v>81</v>
       </c>
@@ -2531,20 +2513,20 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" ht="45">
-      <c r="A17" s="61">
+      <c r="A17" s="60">
         <v>14</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="64" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="7">
@@ -2573,16 +2555,16 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="62"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2593,16 +2575,16 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="62"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2613,16 +2595,16 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="63"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="67"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2636,7 +2618,7 @@
       <c r="A21" s="24">
         <v>16</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="25" t="s">
         <v>36</v>
       </c>
@@ -2678,7 +2660,7 @@
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="73"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="41" t="s">
         <v>163</v>
       </c>
@@ -2748,42 +2730,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="119"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="128" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="128"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="126"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
@@ -2815,16 +2797,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="69.95" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="104" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="119" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2844,12 +2826,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="69.95" customHeight="1">
-      <c r="A5" s="106"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="121"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2867,12 +2849,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="69.95" customHeight="1">
-      <c r="A6" s="106"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="122"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2882,7 +2864,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="107"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="9" t="s">
         <v>60</v>
       </c>
@@ -2971,31 +2953,31 @@
       <c r="B1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="90" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="90" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="90" t="s">
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="129"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
@@ -3317,26 +3299,26 @@
       <c r="B1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="90" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="90" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
@@ -3406,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>C4</f>
@@ -3600,10 +3582,10 @@
         <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>144</v>
@@ -3670,36 +3652,36 @@
       <c r="D1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="90" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="90"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="92" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="90" t="s">
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="90" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="129"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="128"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="4" t="s">
@@ -4085,24 +4067,24 @@
       <c r="B1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="130" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
@@ -4392,10 +4374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93BB7E4-E9BF-490F-8356-65B5D0024489}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4413,10 +4395,9 @@
     <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45">
+    <row r="1" spans="1:14" ht="45">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -4433,7 +4414,7 @@
         <v>172</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>39</v>
@@ -4448,27 +4429,24 @@
         <v>53</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>210</v>
+      <c r="B2" s="67" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>149</v>
@@ -4477,44 +4455,41 @@
         <v>148</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="O2" s="52" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="22" t="s">
         <v>150</v>
       </c>
@@ -4522,42 +4497,41 @@
         <v>148</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="52"/>
-    </row>
-    <row r="4" spans="1:15" ht="30">
+    </row>
+    <row r="4" spans="1:14" ht="30">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="25" t="s">
         <v>89</v>
       </c>
@@ -4565,69 +4539,65 @@
         <v>148</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F4" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O4" s="60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>148</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="M5" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-    </row>
-    <row r="6" spans="1:15" ht="30">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="30">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>171</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -4637,44 +4607,41 @@
         <v>5</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="54" t="s">
         <v>31</v>
       </c>
@@ -4682,44 +4649,41 @@
         <v>5</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F7" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="60" t="s">
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="O7" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="54" t="s">
         <v>34</v>
       </c>
@@ -4727,44 +4691,41 @@
         <v>5</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F8" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N8" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="O8" s="60">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30">
+      <c r="N8" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="55" t="s">
         <v>68</v>
       </c>
@@ -4772,44 +4733,41 @@
         <v>5</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F9" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30">
+    </row>
+    <row r="10" spans="1:14" ht="30">
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="55" t="s">
         <v>69</v>
       </c>
@@ -4817,44 +4775,41 @@
         <v>5</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="55" t="s">
         <v>66</v>
       </c>
@@ -4862,26 +4817,25 @@
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-    </row>
-    <row r="12" spans="1:15" ht="30">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="54" t="s">
         <v>81</v>
       </c>
@@ -4889,128 +4843,121 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F12" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-    </row>
-    <row r="13" spans="1:15" ht="45">
-      <c r="A13" s="61">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="45">
+      <c r="A13" s="60">
         <v>12</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="7">
         <v>3</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="7">
         <v>3</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="7">
         <v>3</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="7">
         <v>3</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="7">
         <v>3</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="7">
         <v>3</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="7">
         <v>3</v>
       </c>
-      <c r="O13" s="60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="74"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="61"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="74"/>
+        <v>217</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="61"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="74"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="62"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-    </row>
-    <row r="17" spans="1:15" ht="30">
+      <c r="D16" s="63"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="30">
       <c r="A17" s="24">
         <v>13</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="57" t="s">
         <v>36</v>
       </c>
@@ -5018,44 +4965,41 @@
         <v>5</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="7">
         <v>5</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="7">
         <v>5</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="7">
         <v>5</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="7">
         <v>9</v>
       </c>
-      <c r="L17" s="60">
+      <c r="L17" s="7">
         <v>13</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="7">
         <v>5</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="7">
         <v>13</v>
       </c>
-      <c r="O17" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="58" t="s">
         <v>163</v>
       </c>
@@ -5063,36 +5007,33 @@
         <v>5</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F18" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="7">
         <v>4</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="7">
         <v>4</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="7">
         <v>4</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="7">
         <v>4</v>
       </c>
-      <c r="L18" s="60">
+      <c r="L18" s="7">
         <v>5</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18" s="7">
         <v>4</v>
       </c>
-      <c r="N18" s="60">
-        <v>4</v>
-      </c>
-      <c r="O18" s="60">
+      <c r="N18" s="7">
         <v>4</v>
       </c>
     </row>
@@ -5135,41 +5076,41 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="87" t="s">
         <v>158</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="81" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
@@ -5193,7 +5134,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="82" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -5231,7 +5172,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="83"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="22" t="s">
         <v>150</v>
       </c>
@@ -5267,7 +5208,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="83"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="22" t="s">
         <v>25</v>
       </c>
@@ -5303,7 +5244,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="22" t="s">
         <v>27</v>
       </c>
@@ -5339,7 +5280,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="83"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="22" t="s">
         <v>178</v>
       </c>
@@ -5375,7 +5316,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="83"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="42" t="s">
         <v>179</v>
       </c>
@@ -5411,7 +5352,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>171</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -5443,7 +5384,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="85"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="22" t="s">
         <v>151</v>
       </c>
@@ -5479,7 +5420,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="85"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="22" t="s">
         <v>152</v>
       </c>
@@ -5511,7 +5452,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="22" t="s">
         <v>153</v>
       </c>
@@ -5543,7 +5484,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="85"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="23" t="s">
         <v>154</v>
       </c>
@@ -5579,8 +5520,8 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="85"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="83" t="s">
         <v>175</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -5617,8 +5558,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="85"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="24" t="s">
         <v>5</v>
       </c>
@@ -5653,8 +5594,8 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="85"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
@@ -5679,8 +5620,8 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="85"/>
-      <c r="B19" s="84"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="24" t="s">
         <v>5</v>
       </c>
@@ -5735,10 +5676,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE4E5E2-8FAC-4516-9FEA-053724A7E1DD}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5749,31 +5690,25 @@
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="90"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5795,15 +5730,9 @@
       <c r="G2" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="74" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -5824,15 +5753,9 @@
       <c r="G3" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="74"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="73"/>
       <c r="B4" s="22" t="s">
         <v>150</v>
       </c>
@@ -5849,17 +5772,11 @@
         <v>207</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="A5" s="74"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="73"/>
       <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
@@ -5874,15 +5791,9 @@
         <v>1</v>
       </c>
       <c r="G5" s="52"/>
-      <c r="H5" s="50">
-        <v>7</v>
-      </c>
-      <c r="I5" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="74"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="73"/>
       <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
@@ -5897,19 +5808,12 @@
         <v>208</v>
       </c>
       <c r="G6" s="52"/>
-      <c r="H6" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="52">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5921,7 +5825,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:I1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5941,14 +5845,14 @@
       <c r="C1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="90" t="s">
+      <c r="D1" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="91"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="90"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
@@ -5974,7 +5878,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -5993,7 +5897,7 @@
       <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="74"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="22" t="s">
         <v>150</v>
       </c>
@@ -6001,16 +5905,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
@@ -6031,7 +5935,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="74"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
@@ -6083,41 +5987,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="109" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="111"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="13" t="s">
         <v>110</v>
       </c>
@@ -6144,14 +6048,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="29" t="s">
         <v>102</v>
       </c>
@@ -6175,11 +6079,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="51.75" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="112" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="112"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="33" t="s">
         <v>112</v>
       </c>
@@ -6206,12 +6110,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="29" t="s">
         <v>108</v>
       </c>
@@ -6235,11 +6139,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="31.5">
-      <c r="A7" s="106"/>
-      <c r="B7" s="93" t="s">
+      <c r="A7" s="105"/>
+      <c r="B7" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="33" t="s">
         <v>113</v>
       </c>
@@ -6266,9 +6170,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="106"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="34" t="s">
         <v>119</v>
       </c>
@@ -6295,9 +6199,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="31.5">
-      <c r="A9" s="106"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="33" t="s">
         <v>120</v>
       </c>
@@ -6324,9 +6228,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.5">
-      <c r="A10" s="107"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="33" t="s">
         <v>121</v>
       </c>
@@ -6484,7 +6388,7 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="114" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -6497,7 +6401,7 @@
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="116"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="4" t="s">
         <v>82</v>
       </c>
@@ -6508,7 +6412,7 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="116" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -6531,7 +6435,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="118"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="15" t="s">
         <v>82</v>
       </c>
@@ -6577,7 +6481,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6804,15 +6708,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
@@ -6848,7 +6752,7 @@
       <c r="B3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="119" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -6874,7 +6778,7 @@
       <c r="B4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
@@ -6898,7 +6802,7 @@
       <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
